--- a/globe/numbeoCoLData/2012CoL.xlsx
+++ b/globe/numbeoCoLData/2012CoL.xlsx
@@ -20,777 +20,1542 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="512">
   <si>
     <t xml:space="preserve">Trondheim, Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Trondheim</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stavanger, Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Stavanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zurich, Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Zurich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oslo, Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Oslo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Geneva, Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Geneva</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bern, Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Bern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucerne, Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">Lucerne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perth, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Perth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bergen, Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Bergen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tokyo, Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Tokyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sydney, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Sydney</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adelaide, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Adelaide</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monaco, Monaco</t>
   </si>
   <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copenhagen, Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">Copenhagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edinburgh, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Edinburgh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melbourne, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Melbourne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dublin, Ireland</t>
   </si>
   <si>
+    <t xml:space="preserve">Dublin</t>
+  </si>
+  <si>
     <t xml:space="preserve">London, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arhus, Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">Arhus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canberra, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Canberra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brisbane, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Brisbane</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paris, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
     <t xml:space="preserve">Malmo, Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">Malmo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toulouse, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Toulouse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Riyadh, Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">Riyadh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amsterdam, Netherlands</t>
   </si>
   <si>
+    <t xml:space="preserve">Amsterdam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Darwin, Australia</t>
   </si>
   <si>
+    <t xml:space="preserve">Darwin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auckland, New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">Auckland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gent, Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Gent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stockholm, Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">Stockholm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brussels, Belgium</t>
   </si>
   <si>
+    <t xml:space="preserve">Brussels</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aberdeen, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Aberdeen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boston, MA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Boston</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dusseldorf, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Dusseldorf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wellington, New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">Wellington</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turin, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Turin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rome, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Rome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vancouver, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Vancouver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edmonton, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Edmonton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brighton, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Brighton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birmingham, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toronto, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Toronto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Helsinki, Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venice, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Venice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honolulu, HI, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Honolulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calgary, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Calgary</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sao Paulo, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Sao Paulo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tampere, Finland</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampere</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Francisco, CA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">San Francisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cagliari, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Cagliari</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hanover, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Hanover</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belfast, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Belfast</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vienna, Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">Vienna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seattle, WA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Seattle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strasbourg, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Strasbourg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florence, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Florence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thessaloniki, Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Thessaloniki</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erlangen, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Erlangen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hamburg, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haifa, Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">Haifa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reykjavik, Iceland</t>
   </si>
   <si>
+    <t xml:space="preserve">Reykjavik</t>
+  </si>
+  <si>
     <t xml:space="preserve">New York, NY, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leeds, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phoenix, AZ, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Phoenix</t>
+  </si>
+  <si>
     <t xml:space="preserve">Washington, DC, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linkoping, Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">Linkoping</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montreal, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Montreal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bologna, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Bologna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nice, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Nice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Milan, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Milan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Winnipeg, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Winnipeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Athens, Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Athens</t>
+  </si>
+  <si>
     <t xml:space="preserve">Singapore, Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Munich, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Munich</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bordeaux, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Bordeaux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genoa, Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Genoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Manchester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Christchurch, New Zealand</t>
   </si>
   <si>
+    <t xml:space="preserve">Christchurch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Halifax, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Halifax</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Jose, CA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">San Jose</t>
+  </si>
+  <si>
     <t xml:space="preserve">Columbus, OH, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Columbus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stuttgart, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Stuttgart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marbella, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Marbella</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chania, Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Chania</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ottawa, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Ottawa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brasilia, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Brasilia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hartford, CT, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Hartford</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indianapolis, IN, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Indianapolis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marseille, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Marseille</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frankfurt, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Frankfurt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rio De Janeiro, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Rio De Janeiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicosia, Cyprus</t>
   </si>
   <si>
+    <t xml:space="preserve">Nicosia</t>
+  </si>
+  <si>
     <t xml:space="preserve">London, Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Lyon, France</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyon</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Diego, CA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">San Diego</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los Angeles, CA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Los Angeles</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Juan, Puerto Rico</t>
   </si>
   <si>
+    <t xml:space="preserve">San Juan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cologne, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Cologne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minneapolis, MN, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Minneapolis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tampa, FL, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Tampa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sliema, Malta</t>
   </si>
   <si>
+    <t xml:space="preserve">Sliema</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berlin, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waterloo, Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Waterloo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baltimore, MD, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Baltimore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sevilla, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Sevilla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beirut, Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">Beirut</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barcelona, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Barcelona</t>
+  </si>
+  <si>
     <t xml:space="preserve">Philadelphia, PA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Philadelphia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hong Kong, Hong Kong</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
     <t xml:space="preserve">Madrid, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Madrid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graz, Austria</t>
   </si>
   <si>
+    <t xml:space="preserve">Graz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dallas, TX, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Dallas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jerusalem, Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">Jerusalem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuremberg, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Nuremberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Houston, TX, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Houston</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bilbao, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Bilbao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leicester, United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Leicester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campinas, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Campinas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abu Dhabi, United Arab Emirates</t>
   </si>
   <si>
+    <t xml:space="preserve">Abu Dhabi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chicago, IL, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doha, Qatar</t>
   </si>
   <si>
+    <t xml:space="preserve">Doha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Florianopolis, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Florianopolis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pittsburgh, PA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Pittsburgh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montevideo, Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">Montevideo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dubai, United Arab Emirates</t>
   </si>
   <si>
+    <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bremen, Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Porto Alegre, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Porto Alegre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cincinnati, OH, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Cincinnati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valencia, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Valencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patras, Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Patras</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curitiba, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Curitiba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Detroit, MI, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Detroit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denver, CO, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Denver</t>
+  </si>
+  <si>
     <t xml:space="preserve">Austin, TX, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portland, OR, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Portland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Londrina, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Londrina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lisbon, Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">Lisbon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coimbra, Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">Coimbra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Split, Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">Split</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salvador, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Casablanca, Morocco</t>
   </si>
   <si>
+    <t xml:space="preserve">Casablanca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Des Moines, IA, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Des Moines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ljubljana, Slovenia</t>
   </si>
   <si>
+    <t xml:space="preserve">Ljubljana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maribor, Slovenia</t>
   </si>
   <si>
+    <t xml:space="preserve">Maribor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Istanbul, Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Istanbul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Astana, Kazakhstan</t>
   </si>
   <si>
+    <t xml:space="preserve">Astana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johannesburg, South Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">Johannesburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balneario Camboriu, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Balneario Camboriu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Las Vegas, NV, United States</t>
   </si>
   <si>
+    <t xml:space="preserve">Las Vegas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manama, Bahrain</t>
   </si>
   <si>
+    <t xml:space="preserve">Manama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zagreb, Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">Zagreb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baku, Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">Baku</t>
+  </si>
+  <si>
     <t xml:space="preserve">San Jose, Costa Rica</t>
   </si>
   <si>
     <t xml:space="preserve">Riga, Latvia</t>
   </si>
   <si>
+    <t xml:space="preserve">Riga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seoul, South Korea</t>
   </si>
   <si>
+    <t xml:space="preserve">Seoul</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fortaleza, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Fortaleza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bratislava, Slovakia</t>
   </si>
   <si>
+    <t xml:space="preserve">Bratislava</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santiago, Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">Santiago</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bogota, Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">Bogota</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belo Horizonte, Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Belo Horizonte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Porto, Portugal</t>
   </si>
   <si>
+    <t xml:space="preserve">Porto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Cruz De Tenerife, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">Santa Cruz De Tenerife</t>
+  </si>
+  <si>
     <t xml:space="preserve">Novosibirsk, Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Novosibirsk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saint Petersburg, Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Saint Petersburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kaunas, Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaunas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tallinn, Estonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Tallinn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perm, Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Perm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budva, Montenegro</t>
   </si>
   <si>
+    <t xml:space="preserve">Budva</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amman, Jordan</t>
   </si>
   <si>
+    <t xml:space="preserve">Amman</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buenos Aires, Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">Buenos Aires</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taipei, Taiwan</t>
   </si>
   <si>
+    <t xml:space="preserve">Taipei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jakarta, Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">Jakarta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vilnius, Lithuania</t>
   </si>
   <si>
+    <t xml:space="preserve">Vilnius</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budapest, Hungary</t>
   </si>
   <si>
+    <t xml:space="preserve">Budapest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yerevan, Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">Yerevan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yekaterinburg, Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Yekaterinburg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prague, Czech Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">Prague</t>
+  </si>
+  <si>
     <t xml:space="preserve">Debrecen, Hungary</t>
   </si>
   <si>
+    <t xml:space="preserve">Debrecen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tehran, Iran</t>
   </si>
   <si>
+    <t xml:space="preserve">Tehran</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brno, Czech Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">Brno</t>
+  </si>
+  <si>
     <t xml:space="preserve">Izmir, Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Izmir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Podgorica, Montenegro</t>
   </si>
   <si>
+    <t xml:space="preserve">Podgorica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medellin, Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">Medellin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antalya, Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Antalya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kosice, Slovakia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kosice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ankara, Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">Ankara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiev, Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiev</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexico City, Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">Mexico City</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lima, Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">Lima</t>
+  </si>
+  <si>
     <t xml:space="preserve">Osijek, Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">Osijek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sarajevo, Bosnia And Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarajevo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cordoba, Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">Cordoba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tula, Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Tula</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guadalajara, Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">Guadalajara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tbilisi, Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">Tbilisi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monterrey, Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">Monterrey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Belgrade, Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgrade</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sofia, Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Sofia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kuala Lumpur, Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuala Lumpur</t>
+  </si>
+  <si>
     <t xml:space="preserve">Damascus, Syria</t>
   </si>
   <si>
+    <t xml:space="preserve">Damascus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johor Bahru, Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">Johor Bahru</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wroclaw, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Wroclaw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guayaquil, Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Guayaquil</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beijing, China</t>
   </si>
   <si>
+    <t xml:space="preserve">Beijing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shanghai, China</t>
   </si>
   <si>
+    <t xml:space="preserve">Shanghai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulaanbaatar, Mongolia</t>
   </si>
   <si>
+    <t xml:space="preserve">Ulaanbaatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quito, Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Quito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Warsaw, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Warsaw</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cairo, Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">Cairo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poznan, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Poznan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Novi Sad, Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">Novi Sad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iasi, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Iasi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangkok, Thailand</t>
   </si>
   <si>
+    <t xml:space="preserve">Bangkok</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guangzhou, China</t>
   </si>
   <si>
+    <t xml:space="preserve">Guangzhou</t>
+  </si>
+  <si>
     <t xml:space="preserve">Varna, Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Varna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Katowice, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Katowice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gdansk, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Gdansk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cluj-napoca, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Cluj-napoca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bucharest, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Bucharest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banja Luka, Bosnia And Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">Banja Luka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brasov, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Brasov</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constanta, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Constanta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timisoara, Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">Timisoara</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plovdiv, Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Plovdiv</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quezon City, Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Quezon City</t>
+  </si>
+  <si>
     <t xml:space="preserve">Krakow (Cracow), Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Krakow (Cracow)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szczecin, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Szczecin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hanoi, Vietnam</t>
   </si>
   <si>
+    <t xml:space="preserve">Hanoi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chisinau, Moldova</t>
   </si>
   <si>
+    <t xml:space="preserve">Chisinau</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cebu, Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Cebu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Minsk, Belarus</t>
   </si>
   <si>
+    <t xml:space="preserve">Minsk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manila, Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Manila</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makati, Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Makati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Managua, Nicaragua</t>
   </si>
   <si>
+    <t xml:space="preserve">Managua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skopje, Macedonia</t>
   </si>
   <si>
+    <t xml:space="preserve">Skopje</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esfahan, Iran</t>
   </si>
   <si>
+    <t xml:space="preserve">Esfahan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nis, Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">Nis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lublin, Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Lublin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gurgaon, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Gurgaon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ho Chi Minh City, Vietnam</t>
   </si>
   <si>
+    <t xml:space="preserve">Ho Chi Minh City</t>
+  </si>
+  <si>
     <t xml:space="preserve">Algiers, Algeria</t>
   </si>
   <si>
+    <t xml:space="preserve">Algiers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lahore, Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">Lahore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delhi, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Delhi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Davao, Philippines</t>
   </si>
   <si>
+    <t xml:space="preserve">Davao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mumbai, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangalore, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indore, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Indore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chandigarh, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahmedabad, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Ahmedabad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hyderabad, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyderabad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Madurai, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Madurai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kolkata, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Kolkata</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pune, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chennai, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Chennai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kochi, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Kochi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thiruvananthapuram, India</t>
   </si>
   <si>
+    <t xml:space="preserve">Thiruvananthapuram</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ludhiana, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludhiana</t>
   </si>
 </sst>
 </file>
@@ -805,6 +1570,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -897,15 +1663,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.4438775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,2053 +1681,4366 @@
       <c r="B1" s="1" t="n">
         <v>188.91</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>63.4305658</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>10.3951929</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>171.32</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>58.9680427</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5.7324722</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>152.84</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>47.3685586</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>8.5404434</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>152.03</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>59.9132694</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10.7391112</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>146.24</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>46.2017559</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>6.1466014</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>142.44</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>46.9482713</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7.4514512</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>139.94</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>47.0505452</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>8.3054682</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>139.63</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-31.952712</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>115.8604796</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>138.79</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>60.3943532</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5.325551</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>135.23</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>34.2255804</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>139.294774527</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>132.39</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-33.8679573</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>151.210047</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>129.6</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-34.9274283</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>138.599899</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>128.15</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>43.7311424</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7.4197576</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>123.82</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>55.6867243</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12.5700724</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>122.52</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>55.9495628</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-3.1914971</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>121.53</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>-37.8142175</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>144.9631608</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>119.56</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>53.3497645</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>-6.2602731</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>118.52</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>51.5073219</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-0.1276473</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>115.96</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>56.1496278</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10.2134046</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>115.89</v>
       </c>
+      <c r="D20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-35.2819366</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>149.128894</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>114.7</v>
       </c>
+      <c r="D21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>-27.4689681</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>153.0234991</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>113.88</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>48.8566101</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>2.3514992</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>112.89</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>55.6052931</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>13.0001566</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>112.28</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>43.6044622</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.4442469</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>112.03</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>24.6319692</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>46.7150648</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>110.78</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>52.3745403</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>4.89797550562</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>110.41</v>
       </c>
+      <c r="D27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>-12.4604399</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>130.8410469</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>110.36</v>
       </c>
+      <c r="D28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>-36.8534664</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>174.7655514</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>109.27</v>
       </c>
+      <c r="D29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>51.0538286</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3.7250121</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>109.14</v>
       </c>
+      <c r="D30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>59.3251172</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>18.0710935</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>109.1</v>
       </c>
+      <c r="D31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>50.8465565</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>4.351697</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>109.08</v>
       </c>
+      <c r="D32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>57.1452452</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>-2.0913744</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>106.8</v>
       </c>
+      <c r="D33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>42.3604823</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>-71.0595677</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>106.51</v>
       </c>
+      <c r="D34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>51.2254018</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>6.7763137</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>106.02</v>
       </c>
+      <c r="D35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>-41.2887638</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>174.7772239</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>105.68</v>
       </c>
+      <c r="D36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>45.0709201</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>7.685972</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>105.6</v>
       </c>
+      <c r="D37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>6.1304187</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1.215829</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>105.29</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>49.2608944</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>-123.1139382</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>105.28</v>
       </c>
+      <c r="D39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>53.5343609</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>-113.5065084</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>104.73</v>
       </c>
+      <c r="D40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>50.8220399</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>-0.137406</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>104.57</v>
       </c>
+      <c r="D41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>52.4776875</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>-1.8948515</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>104.53</v>
       </c>
+      <c r="D42" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>43.6529206</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>-79.3849007</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>104.08</v>
       </c>
+      <c r="D43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>60.1674086</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>24.9425683</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>103.56</v>
       </c>
+      <c r="D44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>45.4371908</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>12.3345899</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>103.46</v>
       </c>
+      <c r="D45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>21.304547</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>-157.8556763</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>103.38</v>
       </c>
+      <c r="D46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>51.0530588</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>-114.0625613</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>102.96</v>
       </c>
+      <c r="D47" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>-23.5506506</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>-46.6333823</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>102.68</v>
       </c>
+      <c r="D48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>61.4980214</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>23.7603118</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>102.52</v>
       </c>
+      <c r="D49" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>37.7792808</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>-122.4192362</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>101.88</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>39.2169525</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>9.1128513</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>101.82</v>
       </c>
+      <c r="D51" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>52.3744779</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>9.7385532</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>101.74</v>
       </c>
+      <c r="D52" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>54.5969869</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>-5.9300991</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>101.47</v>
       </c>
+      <c r="D53" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>48.2083537</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>16.3725042</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>101.04</v>
       </c>
+      <c r="D54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>47.6038321</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>-122.3300623</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>100.86</v>
       </c>
+      <c r="D55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>48.584614</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>7.7507127</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>100.43</v>
       </c>
+      <c r="D56" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>43.7698712</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>11.2555757</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>100.39</v>
       </c>
+      <c r="D57" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>40.6403167</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>22.9352716</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>100.39</v>
       </c>
+      <c r="D58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>49.5981208</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>11.0036532</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>100.18</v>
       </c>
+      <c r="D59" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>53.5503414</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>10.000654</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>100.12</v>
       </c>
+      <c r="D60" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>32.8191218</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>34.9983856</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>100.11</v>
       </c>
+      <c r="D61" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>64.145981</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>-21.9422366</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="D62" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>40.7305991</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>-73.9865811</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>98.85</v>
       </c>
+      <c r="D63" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>53.7974185</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>-1.543794</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>98.57</v>
       </c>
+      <c r="D64" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>33.4485866</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>-112.0773455</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>98.19</v>
       </c>
+      <c r="D65" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>38.8949549</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>-77.0366455</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>98.06</v>
       </c>
+      <c r="D66" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>58.4113704</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>15.6245048</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>97.86</v>
       </c>
+      <c r="D67" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>45.4971225</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>-73.6114885</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>97.82</v>
       </c>
+      <c r="D68" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>44.4936714</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>11.3430347</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>96.89</v>
       </c>
+      <c r="D69" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>43.7009358</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>7.2683912</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>96.88</v>
       </c>
+      <c r="D70" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>45.4667971</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>9.1904984</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>96.64</v>
       </c>
+      <c r="D71" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>49.8833343</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>-97.166674</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>96.49</v>
       </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>39.3292396</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>-82.1012554</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>96.08</v>
       </c>
+      <c r="D73" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1.2904527</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>103.852038</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>95.95</v>
       </c>
+      <c r="D74" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>48.1371079</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>11.5753822</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>95.92</v>
       </c>
+      <c r="D75" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>44.841225</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>-0.5800363</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>95.06</v>
       </c>
+      <c r="D76" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>44.40726</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>8.9338624</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>94.96</v>
       </c>
+      <c r="D77" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>53.4791301</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>-2.2441008</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>94.35</v>
       </c>
+      <c r="D78" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>-43.5309549</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>172.6366455</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>94.3</v>
       </c>
+      <c r="D79" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>44.6484246</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>-63.5749723</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>94.11</v>
       </c>
+      <c r="D80" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>37.3361905</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>-121.8905832</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>94.03</v>
       </c>
+      <c r="D81" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>39.9622601</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>-83.0007064</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>94.01</v>
       </c>
+      <c r="D82" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>48.7784485</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>9.1800132</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>93.95</v>
       </c>
+      <c r="D83" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>36.5089758</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>-4.8856199</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>93.77</v>
       </c>
+      <c r="D84" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>35.5141834</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>24.0181459</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>93.76</v>
       </c>
+      <c r="D85" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>45.4210328</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>-75.6900218</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>93.08</v>
       </c>
+      <c r="D86" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>-10.3333332</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>-53.1999999</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>92.9</v>
       </c>
+      <c r="D87" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>41.7634935</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>-72.6830522</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>92.5</v>
       </c>
+      <c r="D88" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>39.7683331</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>-86.1583501</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>92.13</v>
       </c>
+      <c r="D89" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>43.2961743</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>5.3699525</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>92.02</v>
       </c>
+      <c r="D90" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>50.1106529</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>8.6820934</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>91.85</v>
       </c>
+      <c r="D91" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>-22.9110136</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>-43.2093726</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>91.8</v>
       </c>
+      <c r="D92" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>35.1739302</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>33.364726</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>91.51</v>
       </c>
+      <c r="D93" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>51.5073219</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>-0.1276473</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>91.14</v>
       </c>
+      <c r="D94" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>45.7578137</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>4.8320114</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>91.05</v>
       </c>
+      <c r="D95" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>32.7174209</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>-117.1627713</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>90.87</v>
       </c>
+      <c r="D96" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>34.0543942</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>-118.2439408</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>90.78</v>
       </c>
+      <c r="D97" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>18.38423905</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>-66.0534398736</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>90.73</v>
       </c>
+      <c r="D98" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>50.9383611</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>6.9599738</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>90.26</v>
       </c>
+      <c r="D99" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>44.9772995</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>-93.2654691</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>89.97</v>
       </c>
+      <c r="D100" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>27.9477595</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>-82.4584439</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>89.88</v>
       </c>
+      <c r="D101" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>35.9127609</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>14.5020708</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>89.09</v>
       </c>
+      <c r="D102" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>52.5170365</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>13.3888599</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>89.02</v>
       </c>
+      <c r="D103" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>51.5019408</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>-0.11315754845</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>88.99</v>
       </c>
+      <c r="D104" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>39.2908608</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>-76.6108072</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>88.96</v>
       </c>
+      <c r="D105" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>37.3886303</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>-5.995317</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>88.92</v>
       </c>
+      <c r="D106" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>33.8959203</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>35.47843</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>88.82</v>
       </c>
+      <c r="D107" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>41.3825596</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>2.1771353</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>88.36</v>
       </c>
+      <c r="D108" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>39.9523993</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>-75.1635898</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>88.13</v>
       </c>
+      <c r="D109" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>22.2793278</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>114.1628131</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>87.93</v>
       </c>
+      <c r="D110" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>40.4167047</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>-3.7035824</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>87.76</v>
       </c>
+      <c r="D111" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>47.0702563</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>15.4385716</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>87.62</v>
       </c>
+      <c r="D112" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>32.7620405</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>-96.7790068</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>87.54</v>
       </c>
+      <c r="D113" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>31.7791134</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>35.2266286</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>87.54</v>
       </c>
+      <c r="D114" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>49.4538723</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>11.0772978</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>86.97</v>
       </c>
+      <c r="D115" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>29.7589382</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>-95.3676973</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>86.62</v>
       </c>
+      <c r="D116" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>43.2629489</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>-2.9349458</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>86.15</v>
       </c>
+      <c r="D117" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>52.6367811</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>-1.1312288</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>85.98</v>
       </c>
+      <c r="D118" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>-22.9055599</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>-47.0608299</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>85.84</v>
       </c>
+      <c r="D119" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>24.4747961</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>54.3705762</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>237</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>85.41</v>
       </c>
+      <c r="D120" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>41.8755546</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>-87.6244211</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>84.73</v>
       </c>
+      <c r="D121" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>25.3014957</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>51.4996673988</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>83.88</v>
       </c>
+      <c r="D122" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>-27.5973001</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>-48.5496097</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>83.72</v>
       </c>
+      <c r="D123" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>40.4416941</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>-79.990086</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>83.56</v>
       </c>
+      <c r="D124" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>-34.9059038</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>-56.1913568</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>83.39</v>
       </c>
+      <c r="D125" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>25.2683521</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>55.2961962</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>82.85</v>
       </c>
+      <c r="D126" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>53.0758196</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>8.8071646</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>82.33</v>
       </c>
+      <c r="D127" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>-30.0329999</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>-51.2304999</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>82.18</v>
       </c>
+      <c r="D128" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>39.1014537</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>-84.5124601</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>81.87</v>
       </c>
+      <c r="D129" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>39.4699014</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>-0.3759512</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>81.84</v>
       </c>
+      <c r="D130" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>38.2462033</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>21.7352492</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>81.1</v>
       </c>
+      <c r="D131" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>-25.4295696</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>-49.2712361</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>79.72</v>
       </c>
+      <c r="D132" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>42.3486635</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>-83.0567374</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>79.39</v>
       </c>
+      <c r="D133" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>39.7391536</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>-104.9847033</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>78.92</v>
       </c>
+      <c r="D134" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>30.2711286</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>-97.7436994</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>77.22</v>
       </c>
+      <c r="D135" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>45.5202471</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>-122.6741948</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>76.68</v>
       </c>
+      <c r="D136" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>-23.3112877</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>-51.1595022</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>76.33</v>
       </c>
+      <c r="D137" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>38.7077926</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>-9.136506</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>75.74</v>
       </c>
+      <c r="D138" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>40.2109801</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>-8.4292056</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>75.6</v>
       </c>
+      <c r="D139" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>43.5115555</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>16.4396801</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>75.53</v>
       </c>
+      <c r="D140" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>13.8000382</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>-88.9140682</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>75.49</v>
       </c>
+      <c r="D141" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>33.5949733</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>-7.6188008</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>75.45</v>
       </c>
+      <c r="D142" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>41.5910641</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>-93.6037148</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>75.42</v>
       </c>
+      <c r="D143" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>46.049865</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>14.5068921</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>75.17</v>
       </c>
+      <c r="D144" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>46.555628</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>15.64477</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>74.89</v>
       </c>
+      <c r="D145" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>41.0096334</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>28.9651646</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>74.58</v>
       </c>
+      <c r="D146" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>51.15092055</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>71.4388595155</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>74.23</v>
       </c>
+      <c r="D147" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>-26.2049999</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>28.0497222</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>293</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>74.02</v>
       </c>
+      <c r="D148" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>-26.9924394</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>-48.6339781</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>73.98</v>
       </c>
+      <c r="D149" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>36.1662859</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>-115.1492249</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>71.86</v>
       </c>
+      <c r="D150" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>26.2235041</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>50.5822436</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>299</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>71.49</v>
       </c>
+      <c r="D151" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>45.8131545</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>15.9770298</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>71.24</v>
       </c>
+      <c r="D152" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>40.3754289</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>49.8328549</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>71.17</v>
       </c>
+      <c r="D153" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>37.3361905</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>-121.8905832</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>70.75</v>
       </c>
+      <c r="D154" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>56.9493977</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>24.1051846</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>70.53</v>
       </c>
+      <c r="D155" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>37.5666791</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>126.9782914</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>70.3</v>
       </c>
+      <c r="D156" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>-3.7304511</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>-38.5217988</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>69.94</v>
       </c>
+      <c r="D157" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>48.1359085</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>17.1597440625</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>69.89</v>
       </c>
+      <c r="D158" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>-33.4377967</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>-70.650445</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>69.5</v>
       </c>
+      <c r="D159" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>4.5980478</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>-74.0760866</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>69.08</v>
       </c>
+      <c r="D160" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>-19.9227317</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>-43.9450947</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>69.05</v>
       </c>
+      <c r="D161" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>41.1494512</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>-8.6107883</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>320</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>68.98</v>
       </c>
+      <c r="D162" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>28.4597823</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>-16.2536377</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>67.96</v>
       </c>
+      <c r="D163" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>55.0282215</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>82.9234476</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>67.58</v>
       </c>
+      <c r="D164" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>59.9387318</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>30.3162286</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>67.44</v>
       </c>
+      <c r="D165" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>54.8982139</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>23.9044817</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>66.95</v>
       </c>
+      <c r="D166" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>59.4372155</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>24.7453688</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>66.64</v>
       </c>
+      <c r="D167" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>58.0149643</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>56.2467244</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>66.16</v>
       </c>
+      <c r="D168" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>42.2835454</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>18.8378775</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>65.95</v>
       </c>
+      <c r="D169" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>31.9515694</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>35.9239625</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>65.93</v>
       </c>
+      <c r="D170" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>-34.6075797</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>-58.4375796</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>65.66</v>
       </c>
+      <c r="D171" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>25.0375167</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>121.5637</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>340</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>64.11</v>
       </c>
+      <c r="D172" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>-6.1753941</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>106.8271826</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>63.84</v>
       </c>
+      <c r="D173" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>54.6870458</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>25.2829111</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>63.41</v>
       </c>
+      <c r="D174" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>47.4983815</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>19.0404707</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>63.39</v>
       </c>
+      <c r="D175" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>40.1776121</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>44.5125849</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>63.22</v>
       </c>
+      <c r="D176" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>56.8391034</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>60.6082502</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>62.91</v>
       </c>
+      <c r="D177" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>50.0874654</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>14.4212503</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>352</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>62.47</v>
       </c>
+      <c r="D178" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>47.531399</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>21.6259782</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>62.43</v>
       </c>
+      <c r="D179" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>35.7006177</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>51.401375</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>62.35</v>
       </c>
+      <c r="D180" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>49.1922443</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>16.6113382</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>62.12</v>
       </c>
+      <c r="D181" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>38.4153421</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>27.144474</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>360</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>61.72</v>
       </c>
+      <c r="D182" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>42.4415238</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>19.2621081</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>61.43</v>
       </c>
+      <c r="D183" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>6.2443382</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>-75.5735529</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="D184" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>36.9008783</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>30.6937117</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>60.86</v>
       </c>
+      <c r="D185" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>48.7172272</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>21.2496774</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>60.73</v>
       </c>
+      <c r="D186" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>39.9215219</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>32.8537929</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>370</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>59.87</v>
       </c>
+      <c r="D187" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>50.4501071</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>30.5240501</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>59.68</v>
       </c>
+      <c r="D188" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>19.4326009</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>-99.1333415</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>59.52</v>
       </c>
+      <c r="D189" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>-12.0621064</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>-77.0365255</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>59.5</v>
       </c>
+      <c r="D190" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>45.5541203</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>18.6896905</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>378</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>58.59</v>
       </c>
+      <c r="D191" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>43.8519774</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>18.3866868</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>57.81</v>
       </c>
+      <c r="D192" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>37.8845065</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>-4.7793654</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>382</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>57.72</v>
       </c>
+      <c r="D193" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>45.2678158</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>1.7706904</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>57.67</v>
       </c>
+      <c r="D194" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>40.7399963</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>-2.50592992588</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>57.32</v>
       </c>
+      <c r="D195" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>41.6935247</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>44.8015019</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>56.6</v>
       </c>
+      <c r="D196" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>25.63978365</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>-100.293101529</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>56.21</v>
       </c>
+      <c r="D197" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>44.8178787</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>20.4568089</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>55.62</v>
       </c>
+      <c r="D198" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>42.6977211</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>23.3225964</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>394</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>55.55</v>
       </c>
+      <c r="D199" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>2.74378195</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>101.711611883</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>55.5</v>
       </c>
+      <c r="D200" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>33.5130695</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>36.3095814</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>55.32</v>
       </c>
+      <c r="D201" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>1.4953041</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>103.7550839</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>54.85</v>
       </c>
+      <c r="D202" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>51.1089776</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>17.0326689</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>54.76</v>
       </c>
+      <c r="D203" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>-2.181193</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>-79.8765572</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>404</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>54.38</v>
       </c>
+      <c r="D204" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>39.9059631</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>116.391248</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>54.2</v>
       </c>
+      <c r="D205" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>31.2253441</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>121.4888922</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>408</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>53.86</v>
       </c>
+      <c r="D206" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>47.949809</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>106.966724194</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>53.69</v>
       </c>
+      <c r="D207" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>-0.220164</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>-78.5123273</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>53.64</v>
       </c>
+      <c r="D208" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>52.2319237</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>21.0067265</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>53.4</v>
       </c>
+      <c r="D209" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>30.0488185</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>31.2436663</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>53.2</v>
       </c>
+      <c r="D210" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>52.4082663</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>16.9335199</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>52.7</v>
       </c>
+      <c r="D211" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>45.2551053</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>19.845081</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>52.66</v>
       </c>
+      <c r="D212" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>47.161494</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>27.5840504</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>52.61</v>
       </c>
+      <c r="D213" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>13.7538929</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>100.8160803</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>52.44</v>
       </c>
+      <c r="D214" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>23.1300037</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>113.259001</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>52.13</v>
       </c>
+      <c r="D215" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>43.2166104</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>27.9017131</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>51.87</v>
       </c>
+      <c r="D216" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>50.2598987</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>19.0215852</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>51.64</v>
       </c>
+      <c r="D217" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>54.3482259</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>18.6542888</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>51.35</v>
       </c>
+      <c r="D218" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>46.7693367</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>23.5900604</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>50.97</v>
       </c>
+      <c r="D219" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>44.4361414</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>26.1027202</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>436</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>50.12</v>
       </c>
+      <c r="D220" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>44.7719893</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>17.1898768</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>438</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>50.05</v>
       </c>
+      <c r="D221" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>45.6523093</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>25.6102746</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>49.97</v>
       </c>
+      <c r="D222" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>44.1724166</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>28.620819663</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>49.9</v>
       </c>
+      <c r="D223" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>45.7538355</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>21.2257474</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>444</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>49.05</v>
       </c>
+      <c r="D224" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>42.1419118</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>24.7498385</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>48.83</v>
       </c>
+      <c r="D225" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>14.6509905</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>121.0486155</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>448</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>48.63</v>
       </c>
+      <c r="D226" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>50.0606742</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>19.9371393</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>48.59</v>
       </c>
+      <c r="D227" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>53.4302122</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>14.5509784</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>47.83</v>
       </c>
+      <c r="D228" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>20.9749006</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>105.675563064</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>454</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>47.81</v>
       </c>
+      <c r="D229" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>47.0122737</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>28.8605936</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>456</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>47.61</v>
       </c>
+      <c r="D230" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>123.84</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>458</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>47.4</v>
       </c>
+      <c r="D231" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>53.902334</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>27.5618791</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>47.34</v>
       </c>
+      <c r="D232" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>14.5906216</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>120.9799696</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>462</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>47.17</v>
       </c>
+      <c r="D233" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>14.55459465</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>121.021408611</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>46.57</v>
       </c>
+      <c r="D234" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>12.1461244</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>-86.2737169</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>466</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>46.51</v>
       </c>
+      <c r="D235" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>41.9960924</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>21.4316495</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>468</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>45.56</v>
       </c>
+      <c r="D236" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>32.6707877</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>51.6650002</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>470</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>44.85</v>
       </c>
+      <c r="D237" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>43.321504</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>21.8957301</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>472</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>42.4</v>
       </c>
+      <c r="D238" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>51.250559</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>22.5701022</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>474</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>41.64</v>
       </c>
+      <c r="D239" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>28.4646148</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>77.0299194</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>41.09</v>
       </c>
+      <c r="D240" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>10.7758439</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>106.7017555</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>478</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>40.6</v>
       </c>
+      <c r="D241" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>28.0000272</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>2.9999825</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>40.09</v>
       </c>
+      <c r="D242" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>31.5621916</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>74.3228517</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>482</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>37.93</v>
       </c>
+      <c r="D243" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>28.6517178</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>77.2219388</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>37.59</v>
       </c>
+      <c r="D244" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>6.610975</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>125.429865187</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>486</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>36.62</v>
       </c>
+      <c r="D245" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>18.9321862</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>72.8308337</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>488</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>34.92</v>
       </c>
+      <c r="D246" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>12.9791198</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>77.5912997</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>490</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>34.85</v>
       </c>
+      <c r="D247" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>22.7140354</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>75.8061182386</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>492</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>33.95</v>
       </c>
+      <c r="D248" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>30.7204507</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>76.7669704</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>494</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>33.12</v>
       </c>
+      <c r="D249" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>23.0216238</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>72.5797068</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>496</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>32.67</v>
       </c>
+      <c r="D250" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>17.3616227</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>78.4747305</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>498</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>32.05</v>
       </c>
+      <c r="D251" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>9.833333</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>77.833333</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>31.97</v>
       </c>
+      <c r="D252" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>22.5677459</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>88.3476023</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>31.9</v>
       </c>
+      <c r="D253" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>18.64395815</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>73.9325681901</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>504</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>31.09</v>
       </c>
+      <c r="D254" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>13.0796914</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>80.2829533</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>506</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>31.07</v>
       </c>
+      <c r="D255" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>9.9633864</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>76.2536614</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>508</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>30.3</v>
       </c>
+      <c r="D256" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>8.5058909</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>76.9570481</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>510</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>30.2</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>30.79197145</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>75.8929202567</v>
       </c>
     </row>
   </sheetData>

--- a/globe/numbeoCoLData/2012CoL.xlsx
+++ b/globe/numbeoCoLData/2012CoL.xlsx
@@ -1369,7 +1369,7 @@
     <t xml:space="preserve">Krakow (Cracow), Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Krakow (Cracow)</t>
+    <t xml:space="preserve">Krakow</t>
   </si>
   <si>
     <t xml:space="preserve">Szczecin, Poland</t>
@@ -1665,13 +1665,13 @@
   </sheetPr>
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A209" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A226" activeCellId="0" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
